--- a/TestScriptDataFiles/createCustomer.xlsx
+++ b/TestScriptDataFiles/createCustomer.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>TestScriptID</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>Customers.modifyCustomer(self)</t>
+  </si>
+  <si>
+    <t>TS08</t>
+  </si>
+  <si>
+    <t>Delete Customer</t>
+  </si>
+  <si>
+    <t>Customers.deleteCustomer(self)</t>
   </si>
 </sst>
 </file>
@@ -523,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,10 +616,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,9 +627,20 @@
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/TestScriptDataFiles/createCustomer.xlsx
+++ b/TestScriptDataFiles/createCustomer.xlsx
@@ -535,7 +535,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
